--- a/#AUTRES/Formulaires De Renseignement/genius-formulaire-de-renseignement-dut-gea-aix-grh.xlsx
+++ b/#AUTRES/Formulaires De Renseignement/genius-formulaire-de-renseignement-dut-gea-aix-grh.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personnel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOUVEAU\Desktop\Genius\#AUTRES\Formulaires De Renseignement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5247C8B5-AC4C-4D0D-85F4-F159B10D4F57}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7F6A43-5BAA-45FC-9831-8624F12BA703}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
   <si>
     <t>Informations de la formation</t>
   </si>
@@ -258,32 +264,10 @@
     <t>Campus</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Législation sociale</t>
-    </r>
-  </si>
-  <si>
     <t>Gestion/Commerce/Marketing</t>
   </si>
   <si>
     <t>Electronique/Informatique/Mécanique</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GPEC</t>
-    </r>
   </si>
   <si>
     <t>Analyse des écarts</t>
@@ -318,88 +302,24 @@
     <t>Métier associé</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Plan de formation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Budget</t>
-    </r>
-  </si>
-  <si>
     <t>Gestion de la formation continue</t>
   </si>
   <si>
     <t>Responsable de la formation</t>
   </si>
   <si>
-    <t>Plan de communication</t>
-  </si>
-  <si>
-    <t>Evènementiel</t>
-  </si>
-  <si>
     <t>Gestion de la communication interne</t>
   </si>
   <si>
     <t>Chargé de communication interne</t>
   </si>
   <si>
-    <t>Masse salariale</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bulletin de paie</t>
-    </r>
-  </si>
-  <si>
     <t>Gestion des rémunérations</t>
   </si>
   <si>
     <t>Responsable rémunérations et avantages sociaux</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Diversité</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Handicap</t>
-    </r>
-  </si>
-  <si>
     <t>Gestion des politiques de diversité</t>
   </si>
   <si>
@@ -412,73 +332,7 @@
     <t>Rang A (2 missions sur 5 nécessaires)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Legislation sociale</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Elaboration/Actualisation fiches de poste</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bilan retraite</t>
-    </r>
-  </si>
-  <si>
     <t>Gestionnaire de carrières</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tableaux de bord sociaux</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Techniques d’enquête</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Communication</t>
-    </r>
   </si>
   <si>
     <t>Conduite d’un audit social et organisationnel</t>
@@ -530,12 +384,39 @@
   <si>
     <t xml:space="preserve">Calcul et analyse des ratios </t>
   </si>
+  <si>
+    <t>Diplôme</t>
+  </si>
+  <si>
+    <t>Compétence</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>Métier</t>
+  </si>
+  <si>
+    <t>Asso Métier-Skill</t>
+  </si>
+  <si>
+    <t>FINIR SKILL (PLUSIEURS POUR UN JOB)</t>
+  </si>
+  <si>
+    <t>OBSOLETE</t>
+  </si>
+  <si>
+    <t>Id skill :</t>
+  </si>
+  <si>
+    <t>Id diplom :</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -560,8 +441,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,8 +478,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -738,39 +636,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -780,6 +702,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2107,13 +2030,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
@@ -2127,7 +2050,7 @@
     <col min="11" max="256" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2143,7 +2066,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2161,12 +2084,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2175,7 +2102,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2183,8 +2110,12 @@
         <v>7</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="24">
+        <v>2</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2193,7 +2124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -2211,7 +2142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="3"/>
@@ -2225,7 +2156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -2241,7 +2172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -2257,7 +2188,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2271,7 +2202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -2293,7 +2224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -2315,7 +2246,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2337,7 +2268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -2359,7 +2290,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2381,7 +2312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2395,7 +2326,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2409,7 +2340,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2425,7 +2356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -2441,7 +2372,7 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2455,7 +2386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="13" t="s">
         <v>43</v>
@@ -2473,7 +2404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -2483,7 +2414,10 @@
       <c r="C21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8">
+        <f>E4</f>
+        <v>2</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2493,7 +2427,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>50</v>
       </c>
@@ -2503,7 +2437,10 @@
       <c r="C22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8">
+        <f>E4+1</f>
+        <v>3</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2513,17 +2450,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8">
+        <f>D22+1</f>
+        <v>4</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2533,7 +2473,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>57</v>
       </c>
@@ -2543,7 +2483,10 @@
       <c r="C24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8">
+        <f t="shared" ref="D24:D25" si="0">D23+1</f>
+        <v>5</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2553,7 +2496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2563,7 +2506,10 @@
       <c r="C25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2573,7 +2519,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2587,7 +2533,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2601,7 +2547,7 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
@@ -2617,7 +2563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
@@ -2633,7 +2579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2647,7 +2593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>72</v>
       </c>
@@ -2663,7 +2609,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>46</v>
       </c>
@@ -2681,13 +2627,13 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="str">
         <f>B21</f>
         <v>Législation sociale</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="3"/>
@@ -2697,16 +2643,16 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="str">
         <f>B22</f>
         <v>Rémunération</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="3"/>
@@ -2716,16 +2662,16 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="str">
         <f>B23</f>
         <v>Gestion préviosionnelle des emplois et des compétences (GPEC)</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="3"/>
@@ -2735,16 +2681,16 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="str">
         <f>B24</f>
         <v>Recrutement</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="3"/>
@@ -2754,15 +2700,15 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="3"/>
@@ -2772,10 +2718,10 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="3"/>
@@ -2787,9 +2733,9 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2801,7 +2747,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>46</v>
       </c>
@@ -2812,7 +2758,7 @@
         <v>74</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="3"/>
@@ -2821,116 +2767,124 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>89</v>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="28">
+        <f>D21</f>
+        <v>2</v>
+      </c>
+      <c r="B41" s="28">
+        <f>D22</f>
+        <v>3</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="20"/>
+        <v>87</v>
+      </c>
+      <c r="E41" s="25"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>93</v>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="28">
+        <f>D21</f>
+        <v>2</v>
+      </c>
+      <c r="B42" s="28">
+        <f>D23</f>
+        <v>4</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="21"/>
+        <v>89</v>
+      </c>
+      <c r="E42" s="26"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>97</v>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="28">
+        <f>D21</f>
+        <v>2</v>
+      </c>
+      <c r="B43" s="28">
+        <f>D24</f>
+        <v>5</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="21"/>
+        <v>91</v>
+      </c>
+      <c r="E43" s="26"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>101</v>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="28">
+        <f>D21</f>
+        <v>2</v>
+      </c>
+      <c r="B44" s="28">
+        <f>D25</f>
+        <v>6</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="E44" s="26"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="str">
-        <f>B22</f>
-        <v>Rémunération</v>
-      </c>
-      <c r="B45" s="7" t="str">
-        <f>B23</f>
-        <v>Gestion préviosionnelle des emplois et des compétences (GPEC)</v>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="28">
+        <f>D22</f>
+        <v>3</v>
+      </c>
+      <c r="B45" s="28">
+        <f>D23</f>
+        <v>4</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="E45" s="27"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="str">
-        <f>B22</f>
-        <v>Rémunération</v>
-      </c>
-      <c r="B46" s="7" t="str">
-        <f>B24</f>
-        <v>Recrutement</v>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="28">
+        <f>D22</f>
+        <v>3</v>
+      </c>
+      <c r="B46" s="28">
+        <f>D24</f>
+        <v>5</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -2941,14 +2895,14 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="str">
-        <f>B22</f>
-        <v>Rémunération</v>
-      </c>
-      <c r="B47" s="7" t="str">
-        <f>B25</f>
-        <v>Management</v>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="28">
+        <f>D22</f>
+        <v>3</v>
+      </c>
+      <c r="B47" s="28">
+        <f>D25</f>
+        <v>6</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -2959,14 +2913,14 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="str">
-        <f>B23</f>
-        <v>Gestion préviosionnelle des emplois et des compétences (GPEC)</v>
-      </c>
-      <c r="B48" s="7" t="str">
-        <f>B24</f>
-        <v>Recrutement</v>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="28">
+        <f>D23</f>
+        <v>4</v>
+      </c>
+      <c r="B48" s="28">
+        <f>D24</f>
+        <v>5</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -2977,14 +2931,14 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="str">
-        <f>B23</f>
-        <v>Gestion préviosionnelle des emplois et des compétences (GPEC)</v>
-      </c>
-      <c r="B49" s="7" t="str">
-        <f>B25</f>
-        <v>Management</v>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="28">
+        <f>D23</f>
+        <v>4</v>
+      </c>
+      <c r="B49" s="28">
+        <f>D25</f>
+        <v>6</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -2995,14 +2949,14 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="str">
-        <f>B24</f>
-        <v>Recrutement</v>
-      </c>
-      <c r="B50" s="7" t="str">
-        <f>B25</f>
-        <v>Management</v>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="28">
+        <f>D24</f>
+        <v>5</v>
+      </c>
+      <c r="B50" s="28">
+        <f>D25</f>
+        <v>6</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -3013,7 +2967,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -3025,9 +2979,9 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3039,7 +2993,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>46</v>
       </c>
@@ -3056,78 +3010,66 @@
         <v>74</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
-        <v>79</v>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="F54" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
-        <v>76</v>
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="str">
-        <f>B21</f>
-        <v>Législation sociale</v>
-      </c>
-      <c r="B56" s="7" t="str">
-        <f>B22</f>
-        <v>Rémunération</v>
-      </c>
-      <c r="C56" s="7" t="str">
-        <f>B24</f>
-        <v>Recrutement</v>
-      </c>
-      <c r="D56" s="7" t="str">
-        <f>B25</f>
-        <v>Management</v>
-      </c>
+    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="16"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="8"/>
@@ -3135,23 +3077,11 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="str">
-        <f>B21</f>
-        <v>Législation sociale</v>
-      </c>
-      <c r="B57" s="7" t="str">
-        <f>B23</f>
-        <v>Gestion préviosionnelle des emplois et des compétences (GPEC)</v>
-      </c>
-      <c r="C57" s="7" t="str">
-        <f>B24</f>
-        <v>Recrutement</v>
-      </c>
-      <c r="D57" s="7" t="str">
-        <f>B25</f>
-        <v>Management</v>
-      </c>
+    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="16"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="8"/>
@@ -3159,23 +3089,11 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="str">
-        <f>B22</f>
-        <v>Rémunération</v>
-      </c>
-      <c r="B58" s="7" t="str">
-        <f>B23</f>
-        <v>Gestion préviosionnelle des emplois et des compétences (GPEC)</v>
-      </c>
-      <c r="C58" s="7" t="str">
-        <f>B24</f>
-        <v>Recrutement</v>
-      </c>
-      <c r="D58" s="7" t="str">
-        <f>B25</f>
-        <v>Management</v>
-      </c>
+    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="16"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="8"/>
@@ -3183,7 +3101,7 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3195,9 +3113,9 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3209,7 +3127,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>46</v>
       </c>
@@ -3229,45 +3147,1206 @@
         <v>74</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E62" s="19" t="str">
         <f>B25</f>
         <v>Management</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="9" t="str">
+        <f>IF(B5="","",CONCATENATE("INSERT INTO diplom (DiplomName) VALUES (""",B5,""");"))</f>
+        <v>INSERT INTO diplom (DiplomName) VALUES ("DUT Option Gestion des Ressources Humaines (GRH)");</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="21"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="9"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="3" t="str">
+        <f>IF(B21="","",CONCATENATE("INSERT INTO skill (SkillName, SkillDescription) VALUES (""",B21,""",""",C21,""");"))</f>
+        <v>INSERT INTO skill (SkillName, SkillDescription) VALUES ("Législation sociale","Maîtriser et mettre en application la législation sociale");</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="9"/>
+      <c r="B72" s="3" t="str">
+        <f t="shared" ref="B72:B75" si="1">IF(B22="","",CONCATENATE("INSERT INTO skill (SkillName, SkillDescription) VALUES (""",B22,""",""",C22,""");"))</f>
+        <v>INSERT INTO skill (SkillName, SkillDescription) VALUES ("Rémunération","Préparer et contrôler paie et tableaux de bord sociaux");</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="9"/>
+      <c r="B73" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO skill (SkillName, SkillDescription) VALUES ("Gestion préviosionnelle des emplois et des compétences (GPEC)","Gestion anticipative et préventive des ressources humaines");</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="9"/>
+      <c r="B74" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO skill (SkillName, SkillDescription) VALUES ("Recrutement","Recruter et licencier");</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="9"/>
+      <c r="B75" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO skill (SkillName, SkillDescription) VALUES ("Management","Définir une politique managériale et sociale performante");</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="9" t="str">
+        <f>CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES (""",B33,""",1,",D21,");")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES ("Elaboration des bulletins de salaire",1,2);</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9" t="str">
+        <f t="shared" ref="B77:B80" si="2">CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES (""",B34,""",1,",D22,");")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES ("Calcul et analyse des ratios ",1,3);</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES ("Analyse des écarts",1,4);</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES ("Identification des fonctions recherchées",1,5);</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES ("Définition des besoins ",1,6);</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9" t="str">
+        <f>IF(C41&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES (""",C41,""",2,",A41,",",B41,",""",D41,""");"),"")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES ("Gestion de la formation continue",2,2,3,"Responsable de la formation");</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9" t="str">
+        <f t="shared" ref="B83:B90" si="3">IF(C42&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES (""",C42,""",2,",A42,",",B42,",""",D42,""");"),"")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES ("Gestion de la communication interne",2,2,4,"Chargé de communication interne");</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES ("Gestion des rémunérations",2,2,5,"Responsable rémunérations et avantages sociaux");</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES ("Gestion des politiques de diversité",2,2,6,"Responsable diversité et Responsabilité Sociale et Ethique");</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES ("Gestion du recrutement",2,3,4,"Responsable du recrutement");</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9" t="str">
+        <f>IF(E54&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES (""",E54,""",3,",D21,",",D22,",",D23,",",D24,",""",F54,""");"),"")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES ("Gestion des carrières des salariés",3,2,3,4,5,"Gestionnaire de carrières");</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="9"/>
+      <c r="B93" s="9" t="str">
+        <f>IF(E55&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES (""",E55,""",3,",D22,",",D23,",",D24,",",D25,",""",F55,""");"),"")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES ("Conduite d’un audit social et organisationnel",3,3,4,5,6,"Auditeur social");</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9" t="str">
+        <f>IF(E56&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES (""",E56,""",3,",D22,",",D23,",",D24,",",D25,",""",F56,""");"),"")</f>
+        <v/>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9" t="str">
+        <f>IF(E57&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES (""",E57,""",3,",D22,",",D23,",",D24,",",D25,",""",F57,""");"),"")</f>
+        <v/>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9" t="str">
+        <f>IF(E58&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES (""",E58,""",3,",D22,",",D23,",",D24,",",D25,",""",F58,""");"),"")</f>
+        <v/>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9" t="str">
+        <f>CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, IDSkill5, AssociatedJob) VALUES (""",F62,""",4,",D21,",",D22,",",D23,",",D24,",",D25,",""",G62,""");")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, IDSkill5, AssociatedJob) VALUES ("Définir la stratégie des ressources humaines",4,2,3,4,5,6,"Directeur des Ressources Humaines");</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="9" t="str">
+        <f>CONCATENATE("INSERT INTO exam (ExamName, IDDiplom, IDRank, IDSkillSlot1, IDSkillSlot2, IDSkillSlot3, IDSkillSlot4, IDSkillSlot5) VALUES (""",B5,""",",E3,",4,",D21,",",D22,",",D23,",",D24,",",D25,");")</f>
+        <v>INSERT INTO exam (ExamName, IDDiplom, IDRank, IDSkillSlot1, IDSkillSlot2, IDSkillSlot3, IDSkillSlot4, IDSkillSlot5) VALUES ("DUT Option Gestion des Ressources Humaines (GRH)",1,4,2,3,4,5,6);</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D41,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("Responsable de la formation");</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="22"/>
+      <c r="B107" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D42,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("Chargé de communication interne");</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="22"/>
+      <c r="B108" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D43,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("Responsable rémunérations et avantages sociaux");</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="22"/>
+      <c r="B109" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D44,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("Responsable diversité et Responsabilité Sociale et Ethique");</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="22"/>
+      <c r="B110" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D45,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("Responsable du recrutement");</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="22"/>
+      <c r="B111" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D46,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("");</v>
+      </c>
+      <c r="C111" s="3" t="str">
+        <f>IF(E56&gt;0,CONCATENATE("INSERT INTO job (JobName) VALUES (""",E56,""");"),"")</f>
+        <v/>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="22"/>
+      <c r="B112" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D47,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("");</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="22"/>
+      <c r="B113" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D48,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("");</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="22"/>
+      <c r="B114" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D49,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("");</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="22"/>
+      <c r="B115" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D50,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("");</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="22"/>
+      <c r="B117" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",F54,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("Gestionnaire de carrières");</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="22"/>
+      <c r="B118" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",F55,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("Auditeur social");</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="22"/>
+      <c r="B119" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",F56,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("");</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="22"/>
+      <c r="B120" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",F57,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("");</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="22"/>
+      <c r="B121" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",F58,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("");</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="22"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="22"/>
+      <c r="B123" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",G62,""");")</f>
+        <v>INSERT INTO job (JobName) VALUES ("Directeur des Ressources Humaines");</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="22"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B125" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);")</f>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="22"/>
+      <c r="B126" s="23" t="str">
+        <f t="shared" ref="B126:B134" si="4">CONCATENATE("INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);")</f>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="22"/>
+      <c r="B127" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="22"/>
+      <c r="B128" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="22"/>
+      <c r="B129" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="22"/>
+      <c r="B130" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="22"/>
+      <c r="B131" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="22"/>
+      <c r="B132" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="22"/>
+      <c r="B133" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="22"/>
+      <c r="B134" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="22"/>
+      <c r="B136" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);")</f>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="22"/>
+      <c r="B137" s="23" t="str">
+        <f t="shared" ref="B137:B140" si="5">CONCATENATE("INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);")</f>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="22"/>
+      <c r="B138" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="22"/>
+      <c r="B139" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="22"/>
+      <c r="B140" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="22"/>
+      <c r="B142" s="23" t="str">
+        <f>CONCATENATE("INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,4);")</f>
+        <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,4);</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+    </row>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E41:E45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/#AUTRES/Formulaires De Renseignement/genius-formulaire-de-renseignement-dut-gea-aix-grh.xlsx
+++ b/#AUTRES/Formulaires De Renseignement/genius-formulaire-de-renseignement-dut-gea-aix-grh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOUVEAU\Desktop\Genius\#AUTRES\Formulaires De Renseignement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7F6A43-5BAA-45FC-9831-8624F12BA703}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22586D8-8682-41DB-8CE7-DFC365AEC6EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,6 +693,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -702,7 +703,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2768,11 +2768,11 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="28">
+      <c r="A41" s="25">
         <f>D21</f>
         <v>2</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="25">
         <f>D22</f>
         <v>3</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="D41" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="25"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2790,11 +2790,11 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28">
+      <c r="A42" s="25">
         <f>D21</f>
         <v>2</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="25">
         <f>D23</f>
         <v>4</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="D42" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="26"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -2812,11 +2812,11 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="28">
+      <c r="A43" s="25">
         <f>D21</f>
         <v>2</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="25">
         <f>D24</f>
         <v>5</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="D43" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="26"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -2834,11 +2834,11 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="28">
+      <c r="A44" s="25">
         <f>D21</f>
         <v>2</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="25">
         <f>D25</f>
         <v>6</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="D44" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="26"/>
+      <c r="E44" s="27"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2856,11 +2856,11 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="28">
+      <c r="A45" s="25">
         <f>D22</f>
         <v>3</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="25">
         <f>D23</f>
         <v>4</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="D45" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="27"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -2878,11 +2878,11 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="28">
+      <c r="A46" s="25">
         <f>D22</f>
         <v>3</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="25">
         <f>D24</f>
         <v>5</v>
       </c>
@@ -2896,11 +2896,11 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="28">
+      <c r="A47" s="25">
         <f>D22</f>
         <v>3</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="25">
         <f>D25</f>
         <v>6</v>
       </c>
@@ -2914,11 +2914,11 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="28">
+      <c r="A48" s="25">
         <f>D23</f>
         <v>4</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="25">
         <f>D24</f>
         <v>5</v>
       </c>
@@ -2932,11 +2932,11 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="28">
+      <c r="A49" s="25">
         <f>D23</f>
         <v>4</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="25">
         <f>D25</f>
         <v>6</v>
       </c>
@@ -2950,11 +2950,11 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="28">
+      <c r="A50" s="25">
         <f>D24</f>
         <v>5</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="25">
         <f>D25</f>
         <v>6</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>114</v>
       </c>
       <c r="B106" s="23" t="str">
-        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D41,""");")</f>
+        <f t="shared" ref="B106:B115" si="4">CONCATENATE("INSERT INTO job (JobName) VALUES (""",D41,""");")</f>
         <v>INSERT INTO job (JobName) VALUES ("Responsable de la formation");</v>
       </c>
       <c r="C106" s="3"/>
@@ -3776,7 +3776,7 @@
     <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="22"/>
       <c r="B107" s="23" t="str">
-        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D42,""");")</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO job (JobName) VALUES ("Chargé de communication interne");</v>
       </c>
       <c r="C107" s="3"/>
@@ -3791,7 +3791,7 @@
     <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="22"/>
       <c r="B108" s="23" t="str">
-        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D43,""");")</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO job (JobName) VALUES ("Responsable rémunérations et avantages sociaux");</v>
       </c>
       <c r="C108" s="3"/>
@@ -3806,7 +3806,7 @@
     <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="22"/>
       <c r="B109" s="23" t="str">
-        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D44,""");")</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO job (JobName) VALUES ("Responsable diversité et Responsabilité Sociale et Ethique");</v>
       </c>
       <c r="C109" s="3"/>
@@ -3821,7 +3821,7 @@
     <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="22"/>
       <c r="B110" s="23" t="str">
-        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D45,""");")</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO job (JobName) VALUES ("Responsable du recrutement");</v>
       </c>
       <c r="C110" s="3"/>
@@ -3836,7 +3836,7 @@
     <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="22"/>
       <c r="B111" s="23" t="str">
-        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D46,""");")</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO job (JobName) VALUES ("");</v>
       </c>
       <c r="C111" s="3" t="str">
@@ -3854,7 +3854,7 @@
     <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="22"/>
       <c r="B112" s="23" t="str">
-        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D47,""");")</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO job (JobName) VALUES ("");</v>
       </c>
       <c r="C112" s="3"/>
@@ -3869,7 +3869,7 @@
     <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="22"/>
       <c r="B113" s="23" t="str">
-        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D48,""");")</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO job (JobName) VALUES ("");</v>
       </c>
       <c r="C113" s="3"/>
@@ -3884,7 +3884,7 @@
     <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="22"/>
       <c r="B114" s="23" t="str">
-        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D49,""");")</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO job (JobName) VALUES ("");</v>
       </c>
       <c r="C114" s="3"/>
@@ -3899,7 +3899,7 @@
     <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="22"/>
       <c r="B115" s="23" t="str">
-        <f>CONCATENATE("INSERT INTO job (JobName) VALUES (""",D50,""");")</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO job (JobName) VALUES ("");</v>
       </c>
       <c r="C115" s="3"/>
@@ -4057,7 +4057,7 @@
     <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="22"/>
       <c r="B126" s="23" t="str">
-        <f t="shared" ref="B126:B134" si="4">CONCATENATE("INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);")</f>
+        <f t="shared" ref="B126:B134" si="5">CONCATENATE("INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);")</f>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
       </c>
       <c r="C126" s="3"/>
@@ -4074,7 +4074,7 @@
     <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="22"/>
       <c r="B127" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
       </c>
       <c r="C127" s="3"/>
@@ -4089,7 +4089,7 @@
     <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="22"/>
       <c r="B128" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
       </c>
       <c r="C128" s="3"/>
@@ -4104,7 +4104,7 @@
     <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="22"/>
       <c r="B129" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
       </c>
       <c r="C129" s="3"/>
@@ -4119,7 +4119,7 @@
     <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="22"/>
       <c r="B130" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
       </c>
       <c r="C130" s="3"/>
@@ -4134,7 +4134,7 @@
     <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="22"/>
       <c r="B131" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
       </c>
       <c r="C131" s="3"/>
@@ -4149,7 +4149,7 @@
     <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="22"/>
       <c r="B132" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
       </c>
       <c r="C132" s="3"/>
@@ -4164,7 +4164,7 @@
     <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="22"/>
       <c r="B133" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
       </c>
       <c r="C133" s="3"/>
@@ -4179,7 +4179,7 @@
     <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="22"/>
       <c r="B134" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,2);</v>
       </c>
       <c r="C134" s="3"/>
@@ -4221,7 +4221,7 @@
     <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="22"/>
       <c r="B137" s="23" t="str">
-        <f t="shared" ref="B137:B140" si="5">CONCATENATE("INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);")</f>
+        <f t="shared" ref="B137:B140" si="6">CONCATENATE("INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);")</f>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);</v>
       </c>
       <c r="C137" s="3"/>
@@ -4236,7 +4236,7 @@
     <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="22"/>
       <c r="B138" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);</v>
       </c>
       <c r="C138" s="3"/>
@@ -4251,7 +4251,7 @@
     <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="22"/>
       <c r="B139" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);</v>
       </c>
       <c r="C139" s="3"/>
@@ -4266,7 +4266,7 @@
     <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="22"/>
       <c r="B140" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO association_job_skill (IDJob, IDSkill, IDRank) VALUES (1,1,3);</v>
       </c>
       <c r="C140" s="3"/>
